--- a/manuscript/tables_figures/R2 values for all climate variables.xlsx
+++ b/manuscript/tables_figures/R2 values for all climate variables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyrcbm\Dropbox\Global_Productivity\manuscript\tables_figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\Global_Productivity\manuscript\tables_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D005C254-F943-4117-B15D-387B1AB0830C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10365"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +39,6 @@
     <t>ANPP</t>
   </si>
   <si>
-    <t>ANPP woody stem</t>
-  </si>
-  <si>
     <t>ANPP foliage</t>
   </si>
   <si>
@@ -50,12 +48,6 @@
     <t>BNPP fine root</t>
   </si>
   <si>
-    <t>Autotrophic respiration</t>
-  </si>
-  <si>
-    <t>Root respiration</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -120,12 +112,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>R auto</t>
+  </si>
+  <si>
+    <t>R root</t>
+  </si>
+  <si>
+    <t>ANPP stem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -438,1141 +439,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>0.63870000000000005</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0.60940000000000005</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>0.32400000000000001</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>0.70760000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M3">
         <v>0.62690000000000001</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O3">
         <v>0.15540000000000001</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>0.51080000000000003</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0.41710000000000003</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>0.21379999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>0.49049999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4">
         <v>0.44419999999999998</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O4">
         <v>9.5479999999999995E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q4">
         <v>3.7949999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>0.43509999999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0.44440000000000002</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>0.16250000000000001</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>0.41260000000000002</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M5">
         <v>0.33310000000000001</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O5">
         <v>0.1061</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q5">
         <v>4.8509999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>0.17730000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0.23960000000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>0.1416</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6">
         <v>0.1157</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O6">
         <v>5.0479999999999997E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q6">
         <v>6.6070000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0.49990000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0.58260000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>0.25090000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>0.48230000000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M7">
         <v>0.50329999999999997</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O7">
         <v>0.17199999999999999</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q7">
         <v>0.1084</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0.33729999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0.2833</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>0.1452</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>0.33</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8">
         <v>0.29039999999999999</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O8">
         <v>0.23150000000000001</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>0.1704</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0.1477</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>8.9349999999999999E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>0.1721</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9">
         <v>0.17899999999999999</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O9">
         <v>0.13930000000000001</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q9">
         <v>6.9150000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>0.65339999999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0.59089999999999998</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>0.60399999999999998</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10">
         <v>0.62460000000000004</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M10">
         <v>0.49</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10">
         <v>0.26</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q10">
         <v>0.48039999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0.26119999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0.24179999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>0.14929999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>0.21510000000000001</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11">
         <v>0.17760000000000001</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q11">
         <v>0.15670000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0.54979999999999996</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>0.11</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I18">
         <v>0.36020000000000002</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K18">
         <v>0.30759999999999998</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q18">
         <v>0.53120000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>6.3390000000000002E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0.40360000000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19">
         <v>0.1118</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I19">
         <v>0.3165</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K19">
         <v>0.17799999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O19">
         <v>3.5610000000000003E-2</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q19">
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0.36680000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>0.17319999999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I20">
         <v>0.26719999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K20">
         <v>0.22939999999999999</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M20">
         <v>6.3200000000000006E-2</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O20">
         <v>6.2689999999999996E-2</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q20">
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0.13800000000000001</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I21">
         <v>0.2024</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K21">
         <v>0.21460000000000001</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21">
         <v>7.4029999999999999E-2</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q21">
         <v>0.1041</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0.53059999999999996</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>0.1469</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I22">
         <v>0.30759999999999998</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K22">
         <v>0.37509999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M22">
         <v>7.4889999999999998E-2</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O22">
         <v>0.1724</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q22">
         <v>0.45519999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0.27989999999999998</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23">
         <v>0.1113</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23">
         <v>0.36009999999999998</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K23">
         <v>0.25840000000000002</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q23">
         <v>0.255</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0.16309999999999999</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G24">
         <v>8.1610000000000002E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I24">
         <v>0.1376</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q24">
         <v>0.13350000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0.55020000000000002</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>0.22600000000000001</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I25">
         <v>0.32979999999999998</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K25">
         <v>0.44990000000000002</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O25">
         <v>0.26129999999999998</v>
       </c>
       <c r="P25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q25">
         <v>0.46639999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0.1578</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0.16470000000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G26">
         <v>0.16980000000000001</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I26">
         <v>0.1905</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K26">
         <v>0.27200000000000002</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O26">
         <v>0.13880000000000001</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q26">
         <v>0.18890000000000001</v>
@@ -1580,6 +1581,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="B16:C16"/>
@@ -1588,14 +1597,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
